--- a/service-system/src/main/resources/static/车辙-3车道.xlsx
+++ b/service-system/src/main/resources/static/车辙-3车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE79E019-060D-4A67-B7BF-D04AE2ADE00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9512B2E0-7621-42FF-AA52-33588D542A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="799" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="799" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="右幅-混凝土路面" sheetId="12" state="hidden" r:id="rId1"/>
@@ -138,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="178" formatCode="\K#0\+##0"/>
-    <numFmt numFmtId="179" formatCode="\K#0\+000"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="\D\K0#\+###"/>
+    <numFmt numFmtId="176" formatCode="\K#0\+##0"/>
+    <numFmt numFmtId="177" formatCode="\K#0\+000"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="\D\K0#\+###"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -276,7 +276,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="4" borderId="2" applyNumberFormat="0">
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="2" applyNumberFormat="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0">
@@ -302,10 +302,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -326,10 +326,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -346,36 +376,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -707,134 +707,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="30" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="30" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="21" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="21" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -844,7 +844,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -864,7 +864,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1275,12 +1275,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="26"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1299,11 +1299,11 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1322,11 +1322,11 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1345,11 +1345,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="N30" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="25"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1368,11 +1368,11 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="18"/>
       <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1391,11 +1391,11 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="18"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1414,15 +1414,27 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="18"/>
       <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -1439,18 +1451,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -1487,134 +1487,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="30" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="30" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="21" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="21" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1624,7 +1624,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2055,12 +2055,12 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="26"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2079,11 +2079,11 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2102,11 +2102,11 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2125,11 +2125,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="N30" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="25"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2148,11 +2148,11 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="18"/>
       <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2171,11 +2171,11 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="18"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2194,15 +2194,27 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="18"/>
       <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -2219,18 +2231,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -2266,134 +2266,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="30" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="30" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="21" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="21" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2403,7 +2403,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2413,7 +2413,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2423,7 +2423,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2834,12 +2834,12 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="26"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2858,11 +2858,11 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2881,11 +2881,11 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2904,11 +2904,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="N30" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="25"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2927,11 +2927,11 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="18"/>
       <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2950,11 +2950,11 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="18"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2973,15 +2973,27 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="18"/>
       <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -2998,18 +3010,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -3027,7 +3027,7 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -3045,134 +3045,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="30" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="30" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="21" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="21" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3182,7 +3182,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3202,7 +3202,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3613,12 +3613,12 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="26"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3637,11 +3637,11 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3660,11 +3660,11 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3683,11 +3683,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="N30" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="25"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3706,11 +3706,11 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="18"/>
       <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3729,11 +3729,11 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="18"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3752,15 +3752,27 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="18"/>
       <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -3777,18 +3789,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -3824,134 +3824,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="30" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="30" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="21" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="21" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3961,7 +3961,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3971,7 +3971,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3981,7 +3981,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4392,12 +4392,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="26"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4416,11 +4416,11 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4439,11 +4439,11 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4462,11 +4462,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="N30" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="25"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4485,11 +4485,11 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="18"/>
       <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4508,11 +4508,11 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="18"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4531,15 +4531,27 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="18"/>
       <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -4556,18 +4568,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -4604,134 +4604,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="30" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="30" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="21" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="21" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4741,7 +4741,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4751,7 +4751,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5172,12 +5172,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="26"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5196,11 +5196,11 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5219,11 +5219,11 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5242,11 +5242,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="N30" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="25"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5265,11 +5265,11 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="18"/>
       <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5288,11 +5288,11 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="18"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5311,15 +5311,27 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="18"/>
       <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -5336,18 +5348,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -5384,134 +5384,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="30" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="30" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="21" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="21" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5521,7 +5521,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5531,7 +5531,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5541,7 +5541,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -5952,12 +5952,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="26"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5976,11 +5976,11 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5999,11 +5999,11 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6022,11 +6022,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="N30" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="25"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6045,11 +6045,11 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="18"/>
       <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6068,11 +6068,11 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="18"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6091,15 +6091,27 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="18"/>
       <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -6116,18 +6128,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -6164,134 +6164,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="30" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="30" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="21" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="21" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6301,7 +6301,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6311,7 +6311,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6321,7 +6321,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6732,12 +6732,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="26"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6756,11 +6756,11 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6779,11 +6779,11 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6802,11 +6802,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="N30" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="25"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6825,11 +6825,11 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="18"/>
       <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6848,11 +6848,11 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="18"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -6871,15 +6871,27 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="18"/>
       <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -6896,18 +6908,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -6944,134 +6944,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="30" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="30" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="21" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="21" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7081,7 +7081,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7091,7 +7091,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7101,7 +7101,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7512,12 +7512,12 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="26"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7536,11 +7536,11 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7559,11 +7559,11 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7582,11 +7582,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="N30" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="25"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7605,11 +7605,11 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="18"/>
       <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7628,11 +7628,11 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="18"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -7651,15 +7651,27 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="18"/>
       <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -7676,18 +7688,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -7706,8 +7706,8 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7724,134 +7724,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="30" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="30" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="21" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="21" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7861,7 +7861,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7871,7 +7871,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7881,7 +7881,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8292,12 +8292,12 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="26"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8316,11 +8316,11 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8339,11 +8339,11 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8362,11 +8362,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="N30" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="25"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8385,11 +8385,11 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="18"/>
       <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8408,11 +8408,11 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="18"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8431,15 +8431,27 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="18"/>
       <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -8456,18 +8468,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -8503,134 +8503,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="30" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="30" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="21" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="21" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8640,7 +8640,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8650,7 +8650,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8660,7 +8660,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -9071,12 +9071,12 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="26"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9095,11 +9095,11 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9118,11 +9118,11 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9141,11 +9141,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="N30" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="25"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9164,11 +9164,11 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="18"/>
       <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9187,11 +9187,11 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="18"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9210,15 +9210,27 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="18"/>
       <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -9235,18 +9247,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -9282,134 +9282,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="30" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="30" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="21" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="21" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
@@ -9419,7 +9419,7 @@
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
@@ -9429,7 +9429,7 @@
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
@@ -9439,7 +9439,7 @@
       <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -9850,12 +9850,12 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="26"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9874,11 +9874,11 @@
       <c r="M28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9897,11 +9897,11 @@
       <c r="M29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
       <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9920,11 +9920,11 @@
       <c r="M30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="N30" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="25"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9943,11 +9943,11 @@
       <c r="M31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="18"/>
       <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9966,11 +9966,11 @@
       <c r="M32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="18"/>
       <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -9989,15 +9989,27 @@
       <c r="M33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="18"/>
       <c r="Q33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="A4:A6"/>
@@ -10014,18 +10026,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.90551181102362199" right="0.78740157480314998" top="0.74803149606299202" bottom="0.74803149606299202" header="0.47244094488188998" footer="0.47244094488188998"/>
